--- a/data/bigdf.xlsx
+++ b/data/bigdf.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,304 +636,288 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>second</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sylvia s Family Child Care</t>
+          <t>MUNI Bus Stop - 2nd &amp; Howard</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>37.783312</v>
+        <v>37.786641</v>
       </c>
       <c r="E8" t="n">
-        <v>-122.397774</v>
+        <v>-122.397827</v>
       </c>
       <c r="F8" t="n">
-        <v>326</v>
+        <v>522</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.783312, -122.397774]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.786641, -122.397827]}}</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Club X</t>
+          <t>MUNI Bus Stop - Harrison &amp; 4th</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>37.78206</v>
+        <v>37.780694</v>
       </c>
       <c r="E9" t="n">
-        <v>-122.397485</v>
+        <v>-122.399986</v>
       </c>
       <c r="F9" t="n">
-        <v>339</v>
+        <v>580</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.78206, -122.397485]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.780694, -122.399986]}}</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>City Nights</t>
+          <t>Muni Stop</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37.782039</v>
+        <v>37.777616</v>
       </c>
       <c r="E10" t="n">
-        <v>-122.397771</v>
+        <v>-122.394069</v>
       </c>
       <c r="F10" t="n">
-        <v>325</v>
+        <v>591</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.782039, -122.397771]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.777616, -122.394069]}}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SYNERGY's GLOW</t>
+          <t>AAU Shuttle</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37.785531</v>
+        <v>37.786478</v>
       </c>
       <c r="E11" t="n">
-        <v>-122.393101</v>
+        <v>-122.399108</v>
       </c>
       <c r="F11" t="n">
-        <v>265</v>
+        <v>594</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.785531, -122.393101]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.786478, -122.399108]}}</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>second</t>
+        </is>
+      </c>
       <c r="B12" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Infusion</t>
+          <t>Yerba Buena Gardens Child Development Center</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37.782522</v>
+        <v>37.78246</v>
       </c>
       <c r="E12" t="n">
-        <v>-122.392709</v>
+        <v>-122.400807</v>
       </c>
       <c r="F12" t="n">
-        <v>132</v>
+        <v>600</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.782522, -122.392709]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.78246, -122.400807]}}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Serena SF Clubs Guest Lists</t>
+          <t>South Of Market Childc</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>37.782039</v>
+        <v>37.782439</v>
       </c>
       <c r="E13" t="n">
-        <v>-122.397771</v>
+        <v>-122.401092</v>
       </c>
       <c r="F13" t="n">
-        <v>344</v>
+        <v>611</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.782039, -122.397771]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.782439, -122.401092]}}</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>fourth</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SF Brew Fest N' Vegan Eats Invitational</t>
+          <t>California Child Care Resources &amp; Referral Network</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37.785634</v>
+        <v>37.787285</v>
       </c>
       <c r="E14" t="n">
-        <v>-122.393036</v>
+        <v>-122.400087</v>
       </c>
       <c r="F14" t="n">
-        <v>301</v>
+        <v>659</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.785634, -122.393036]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.787285, -122.400087]}}</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>fifth</t>
-        </is>
-      </c>
+      <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>81 Bus Stop</t>
+          <t>Marin Day Schools</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37.393874</v>
+        <v>37.789639</v>
       </c>
       <c r="E15" t="n">
-        <v>-122.078701</v>
+        <v>-122.39492</v>
       </c>
       <c r="F15" t="n">
-        <v>63</v>
+        <v>732</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.393874, -122.078701]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.789639, -122.39492]}}</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>East Whisman Shuttle</t>
+          <t>Sylvia s Family Child Care</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37.3947</v>
+        <v>37.783312</v>
       </c>
       <c r="E16" t="n">
-        <v>-122.076815</v>
+        <v>-122.397774</v>
       </c>
       <c r="F16" t="n">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.3947, -122.076815]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.783312, -122.397774]}}</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>seveneigth</t>
-        </is>
-      </c>
+      <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Soiree Sitters</t>
+          <t>Modern Education Family Childcare</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37.393059</v>
+        <v>37.781349</v>
       </c>
       <c r="E17" t="n">
-        <v>-122.077725</v>
+        <v>-122.401243</v>
       </c>
       <c r="F17" t="n">
-        <v>170</v>
+        <v>657</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.393059, -122.077725]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.781349, -122.401243]}}</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Young Giggles</t>
+          <t>Sheleen Family Childcare</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37.397375</v>
+        <v>37.776754</v>
       </c>
       <c r="E18" t="n">
-        <v>-122.076104</v>
+        <v>-122.392943</v>
       </c>
       <c r="F18" t="n">
-        <v>388</v>
+        <v>706</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.397375, -122.076104]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.776754, -122.392943]}}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ninth</t>
+          <t>third</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
@@ -941,21 +925,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Alberto's Night Club</t>
+          <t>Southside Spirit House</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>37.392426</v>
+        <v>37.787118</v>
       </c>
       <c r="E19" t="n">
-        <v>-122.078764</v>
+        <v>-122.397568</v>
       </c>
       <c r="F19" t="n">
-        <v>243</v>
+        <v>559</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.392426, -122.078764]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.787118, -122.397568]}}</t>
         </is>
       </c>
     </row>
@@ -966,21 +950,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Monte Carlo</t>
+          <t>Club X</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37.393495</v>
+        <v>37.78206</v>
       </c>
       <c r="E20" t="n">
-        <v>-122.079395</v>
+        <v>-122.397485</v>
       </c>
       <c r="F20" t="n">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.393495, -122.079395]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.78206, -122.397485]}}</t>
         </is>
       </c>
     </row>
@@ -991,21 +975,21 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Opal</t>
+          <t>City Nights</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>37.393021</v>
+        <v>37.782039</v>
       </c>
       <c r="E21" t="n">
-        <v>-122.079154</v>
+        <v>-122.397771</v>
       </c>
       <c r="F21" t="n">
-        <v>154</v>
+        <v>325</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.393021, -122.079154]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.782039, -122.397771]}}</t>
         </is>
       </c>
     </row>
@@ -1016,21 +1000,21 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Molly Mcgee's</t>
+          <t>Temple Nightclub</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37.393293</v>
+        <v>37.787904</v>
       </c>
       <c r="E22" t="n">
-        <v>-122.079026</v>
+        <v>-122.397112</v>
       </c>
       <c r="F22" t="n">
-        <v>136</v>
+        <v>606</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.393293, -122.079026]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.787904, -122.397112]}}</t>
         </is>
       </c>
     </row>
@@ -1041,31 +1025,449 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R.A. Blues</t>
+          <t>SYNERGY's GLOW</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37.392426</v>
+        <v>37.785531</v>
       </c>
       <c r="E23" t="n">
-        <v>-122.078764</v>
+        <v>-122.393101</v>
       </c>
       <c r="F23" t="n">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.392426, -122.078764]}}</t>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.785531, -122.393101]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Nikitin &amp; Reznikoff Obyebos</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>37.781219</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-122.399515</v>
+      </c>
+      <c r="F24" t="n">
+        <v>526</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.781219, -122.399515]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Alibi</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>37.786428</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-122.40018</v>
+      </c>
+      <c r="F25" t="n">
+        <v>662</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.786428, -122.40018]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The Grand Nightclub</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>37.779182</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-122.397961</v>
+      </c>
+      <c r="F26" t="n">
+        <v>539</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.779182, -122.397961]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Infusion</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>37.782522</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-122.392709</v>
+      </c>
+      <c r="F27" t="n">
+        <v>132</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.782522, -122.392709]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Serena SF Clubs Guest Lists</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>37.782039</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-122.397771</v>
+      </c>
+      <c r="F28" t="n">
+        <v>344</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.782039, -122.397771]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>fourth</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2nd &amp; King MUNI Metro Station</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>37.779346</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-122.389798</v>
+      </c>
+      <c r="F29" t="n">
+        <v>532</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.779346, -122.389798]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>San Francisco Caltrain Station</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>37.776537</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-122.394938</v>
+      </c>
+      <c r="F30" t="n">
+        <v>727</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.776537, -122.394938]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MUNI Station Brannan</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>37.784871</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-122.388044</v>
+      </c>
+      <c r="F31" t="n">
+        <v>566</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.784871, -122.388044]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Caltrain</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>37.77677</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-122.39488</v>
+      </c>
+      <c r="F32" t="n">
+        <v>701</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.77677, -122.39488]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>San Francisco 4th and King Street Station</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>37.776705</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-122.394876</v>
+      </c>
+      <c r="F33" t="n">
+        <v>708</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.776705, -122.394876]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>fifth</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sweetgreen</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>37.787182</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-122.398432</v>
+      </c>
+      <c r="F34" t="n">
+        <v>616</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.787182, -122.398432]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SF Brew Fest N' Vegan Eats Invitational</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>37.785634</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-122.393036</v>
+      </c>
+      <c r="F35" t="n">
+        <v>301</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.785634, -122.393036]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>seveneigth</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>81 Bus Stop</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>37.393874</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-122.078701</v>
+      </c>
+      <c r="F36" t="n">
+        <v>63</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.393874, -122.078701]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>East Whisman Shuttle</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>37.3947</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-122.076815</v>
+      </c>
+      <c r="F37" t="n">
+        <v>131</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.3947, -122.076815]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>ninth</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Soiree Sitters</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>37.393059</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-122.077725</v>
+      </c>
+      <c r="F38" t="n">
+        <v>170</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.393059, -122.077725]}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Young Giggles</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>37.397375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-122.076104</v>
+      </c>
+      <c r="F39" t="n">
+        <v>388</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{'typepoint': {'type': 'Point', 'coordinates': [37.397375, -122.076104]}}</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A23"/>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
